--- a/CK_export/result/071022253.xlsx
+++ b/CK_export/result/071022253.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="13806" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="353" uniqueCount="174">
   <si>
     <t>OriginalVariableNames</t>
   </si>
@@ -42,36 +42,24 @@
     <t>Dmax &lt; 115.0 %</t>
   </si>
   <si>
-    <t>2540</t>
-  </si>
-  <si>
     <t>Var2</t>
   </si>
   <si>
     <t>V 447 cGy &lt; 500.0 cm3</t>
   </si>
   <si>
-    <t>575.68</t>
-  </si>
-  <si>
     <t>Var3</t>
   </si>
   <si>
     <t>V 1118 cGy &lt; 250.0 cm3</t>
   </si>
   <si>
-    <t>193.94</t>
-  </si>
-  <si>
     <t>Var4</t>
   </si>
   <si>
     <t>V 2235 cGy &lt; 125.0 cm3</t>
   </si>
   <si>
-    <t>81.87</t>
-  </si>
-  <si>
     <t>Var5</t>
   </si>
   <si>
@@ -81,25 +69,16 @@
     <t>Dmean &lt; 50 cGy</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>Var6</t>
   </si>
   <si>
     <t>V 0 cGy &gt; 0.0 cm3</t>
   </si>
   <si>
-    <t>2468.37</t>
-  </si>
-  <si>
     <t>Var7</t>
   </si>
   <si>
-    <t>D 0.0 cm3 &lt; 260 cGy</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>D 0.04 cm3 &lt; 260 cGy</t>
   </si>
   <si>
     <t>Var8</t>
@@ -108,27 +87,18 @@
     <t>D 0.1 cm3 &lt; 300 cGy</t>
   </si>
   <si>
-    <t>223</t>
-  </si>
-  <si>
     <t>Var9</t>
   </si>
   <si>
     <t>D 1.0 cm3 &lt; 600 cGy</t>
   </si>
   <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>Var10</t>
   </si>
   <si>
     <t>D 5.0 % &lt; 600 cGy</t>
   </si>
   <si>
-    <t>109</t>
-  </si>
-  <si>
     <t>Var11</t>
   </si>
   <si>
@@ -141,9 +111,6 @@
     <t>V 112 cGy &lt; 5.0 %</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
     <t>Var13</t>
   </si>
   <si>
@@ -156,9 +123,6 @@
     <t>emlo ELL</t>
   </si>
   <si>
-    <t>1499.95</t>
-  </si>
-  <si>
     <t>Var15</t>
   </si>
   <si>
@@ -168,10 +132,7 @@
     <t>Var16</t>
   </si>
   <si>
-    <t>D 0.0 cm3 &lt; 300 cGy</t>
-  </si>
-  <si>
-    <t>125</t>
+    <t>D 0.04 cm3 &lt; 300 cGy</t>
   </si>
   <si>
     <t>Var17</t>
@@ -180,27 +141,18 @@
     <t>D 0.1 cm3 &lt; 200 cGy</t>
   </si>
   <si>
-    <t>83</t>
-  </si>
-  <si>
     <t>Var18</t>
   </si>
   <si>
     <t>D 1.0 cm3 &lt; 100 cGy</t>
   </si>
   <si>
-    <t>77</t>
-  </si>
-  <si>
     <t>Var19</t>
   </si>
   <si>
     <t>D 5.0 % &lt; 100 cGy</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
     <t>Var20</t>
   </si>
   <si>
@@ -210,16 +162,10 @@
     <t>Dmax &lt; 3690 cGy</t>
   </si>
   <si>
-    <t>947</t>
-  </si>
-  <si>
     <t>Var21</t>
   </si>
   <si>
-    <t>D 0.0 cm3 &lt; 2300 cGy</t>
-  </si>
-  <si>
-    <t>1118</t>
+    <t>D 0.04 cm3 &lt; 2300 cGy</t>
   </si>
   <si>
     <t>Var22</t>
@@ -228,18 +174,12 @@
     <t>D 0.1 cm3 &lt; 90.0 %</t>
   </si>
   <si>
-    <t>35.4</t>
-  </si>
-  <si>
     <t>Var23</t>
   </si>
   <si>
     <t>D 1.0 cm3 &lt; 80.0 %</t>
   </si>
   <si>
-    <t>29.2</t>
-  </si>
-  <si>
     <t>Var24</t>
   </si>
   <si>
@@ -261,63 +201,42 @@
     <t>Dmax &lt; 3300 cGy</t>
   </si>
   <si>
-    <t>2244</t>
-  </si>
-  <si>
     <t>Var27</t>
   </si>
   <si>
     <t>D 0.1 cm3 &lt; 2450 cGy</t>
   </si>
   <si>
-    <t>2128</t>
-  </si>
-  <si>
     <t>Var28</t>
   </si>
   <si>
     <t>D 0.2 cm3 &lt; 2235 cGy</t>
   </si>
   <si>
-    <t>2087</t>
-  </si>
-  <si>
     <t>Var29</t>
   </si>
   <si>
     <t>D 1.0 cm3 &lt; 2011 cGy</t>
   </si>
   <si>
-    <t>1939</t>
-  </si>
-  <si>
     <t>Var30</t>
   </si>
   <si>
     <t>sziv</t>
   </si>
   <si>
-    <t>662.34</t>
-  </si>
-  <si>
     <t>Var31</t>
   </si>
   <si>
     <t>Dmean &lt; 400 cGy</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
     <t>Var32</t>
   </si>
   <si>
     <t>Dmax &lt; 3000 cGy</t>
   </si>
   <si>
-    <t>335</t>
-  </si>
-  <si>
     <t>Var33</t>
   </si>
   <si>
@@ -336,63 +255,42 @@
     <t>V 112 cGy &lt; 40.0 %</t>
   </si>
   <si>
-    <t>16.4</t>
-  </si>
-  <si>
     <t>Var36</t>
   </si>
   <si>
     <t>D 0.1 cm3 &lt; 1118 cGy</t>
   </si>
   <si>
-    <t>316</t>
-  </si>
-  <si>
     <t>Var37</t>
   </si>
   <si>
     <t>D 1.0 cm3 &lt; 559 cGy</t>
   </si>
   <si>
-    <t>295</t>
-  </si>
-  <si>
     <t>Var38</t>
   </si>
   <si>
     <t>D 2.0 cm3 &lt; 224 cGy</t>
   </si>
   <si>
-    <t>286</t>
-  </si>
-  <si>
     <t>Var39</t>
   </si>
   <si>
     <t>D 2.0 % &lt; 250 cGy</t>
   </si>
   <si>
-    <t>229</t>
-  </si>
-  <si>
     <t>Var40</t>
   </si>
   <si>
     <t>tudo AZO</t>
   </si>
   <si>
-    <t>1886.1</t>
-  </si>
-  <si>
     <t>Var41</t>
   </si>
   <si>
     <t>Dmean &lt; 500 cGy</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>Var42</t>
   </si>
   <si>
@@ -405,54 +303,36 @@
     <t>V 224 cGy &lt; 20.0 %</t>
   </si>
   <si>
-    <t>17.3</t>
-  </si>
-  <si>
     <t>Var44</t>
   </si>
   <si>
     <t>V 112 cGy &lt; 45.0 %</t>
   </si>
   <si>
-    <t>33.8</t>
-  </si>
-  <si>
     <t>Var45</t>
   </si>
   <si>
     <t>D 0.1 cm3 &lt; 1341 cGy</t>
   </si>
   <si>
-    <t>665</t>
-  </si>
-  <si>
     <t>Var46</t>
   </si>
   <si>
     <t>D 1.0 cm3 &lt; 1118 cGy</t>
   </si>
   <si>
-    <t>587</t>
-  </si>
-  <si>
     <t>Var47</t>
   </si>
   <si>
     <t>D 2.0 cm3 &lt; 559 cGy</t>
   </si>
   <si>
-    <t>562</t>
-  </si>
-  <si>
     <t>Var48</t>
   </si>
   <si>
     <t>D 2.0 % &lt; 400 cGy</t>
   </si>
   <si>
-    <t>434</t>
-  </si>
-  <si>
     <t>Var49</t>
   </si>
   <si>
@@ -462,10 +342,7 @@
     <t>Var50</t>
   </si>
   <si>
-    <t>azo emlo-PTV_L</t>
-  </si>
-  <si>
-    <t>0.4</t>
+    <t>azo emlo-PTV</t>
   </si>
   <si>
     <t>Var51</t>
@@ -474,9 +351,6 @@
     <t>V 2123 cGy &lt; 1.0 %</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>Var52</t>
   </si>
   <si>
@@ -489,73 +363,49 @@
     <t>V 1118 cGy &lt; 5.0 %</t>
   </si>
   <si>
-    <t>5.4</t>
-  </si>
-  <si>
     <t>Var54</t>
   </si>
   <si>
     <t>V 559 cGy &lt; 10.0 %</t>
   </si>
   <si>
-    <t>15.1</t>
-  </si>
-  <si>
     <t>Var55</t>
   </si>
   <si>
     <t>Dmean &lt; 2235 cGy</t>
   </si>
   <si>
-    <t>298</t>
-  </si>
-  <si>
     <t>Var56</t>
   </si>
   <si>
-    <t>1299</t>
-  </si>
-  <si>
     <t>Var57</t>
   </si>
   <si>
     <t>emlo AZO</t>
   </si>
   <si>
-    <t>1373.21</t>
-  </si>
-  <si>
     <t>Var58</t>
   </si>
   <si>
     <t>V 2235 cGy &lt; 35.0 %</t>
   </si>
   <si>
-    <t>5.7</t>
-  </si>
-  <si>
     <t>Var59</t>
   </si>
   <si>
     <t>V 1676 cGy &lt; 35.0 %</t>
   </si>
   <si>
-    <t>8.2</t>
-  </si>
-  <si>
     <t>Var60</t>
   </si>
   <si>
     <t>V 1118 cGy &lt; 40.0 %</t>
   </si>
   <si>
-    <t>10.5</t>
-  </si>
-  <si>
     <t>Var61</t>
   </si>
   <si>
-    <t>D 0.0 cm3 &lt; 2600 cGy</t>
+    <t>D 0.04 cm3 &lt; 2600 cGy</t>
   </si>
   <si>
     <t>Var62</t>
@@ -564,9 +414,6 @@
     <t>Dmean &gt; 0 cGy</t>
   </si>
   <si>
-    <t>410</t>
-  </si>
-  <si>
     <t>Var63</t>
   </si>
   <si>
@@ -576,60 +423,36 @@
     <t>V 2123 cGy &gt; 99.0 %</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>Var64</t>
   </si>
   <si>
-    <t>2468</t>
-  </si>
-  <si>
     <t>Var65</t>
   </si>
   <si>
     <t>V 2235 cGy &gt; 99.0 %</t>
   </si>
   <si>
-    <t>98.7</t>
-  </si>
-  <si>
     <t>Var66</t>
   </si>
   <si>
     <t>Dmean &gt; 2235 cGy</t>
   </si>
   <si>
-    <t>2313</t>
-  </si>
-  <si>
     <t>Var67</t>
   </si>
   <si>
-    <t>6.47</t>
-  </si>
-  <si>
     <t>Var68</t>
   </si>
   <si>
     <t>CTV</t>
   </si>
   <si>
-    <t>56.09</t>
-  </si>
-  <si>
     <t>Var69</t>
   </si>
   <si>
-    <t>2374</t>
-  </si>
-  <si>
     <t>Var70</t>
   </si>
   <si>
-    <t>99.5</t>
-  </si>
-  <si>
     <t>Var71</t>
   </si>
   <si>
@@ -639,54 +462,36 @@
     <t>Var73</t>
   </si>
   <si>
-    <t>PTV eval_L</t>
-  </si>
-  <si>
-    <t>77.07</t>
+    <t>PTV eval</t>
   </si>
   <si>
     <t>Var74</t>
   </si>
   <si>
-    <t>2363</t>
-  </si>
-  <si>
     <t>Var75</t>
   </si>
   <si>
     <t>V 2235 cGy ≥ 95.0 %</t>
   </si>
   <si>
-    <t>98.1</t>
-  </si>
-  <si>
     <t>Var76</t>
   </si>
   <si>
     <t>D 2.0 % &lt; 2570 cGy</t>
   </si>
   <si>
-    <t>2474</t>
-  </si>
-  <si>
     <t>Var77</t>
   </si>
   <si>
     <t>D 50.0 % &lt; 2570 cGy</t>
   </si>
   <si>
-    <t>2367</t>
-  </si>
-  <si>
     <t>Var78</t>
   </si>
   <si>
     <t>D 98.0 % &lt; 2570 cGy</t>
   </si>
   <si>
-    <t>2236</t>
-  </si>
-  <si>
     <t>Var79</t>
   </si>
   <si>
@@ -696,9 +501,6 @@
     <t>D 90.0 % &lt; 2570 cGy</t>
   </si>
   <si>
-    <t>2283</t>
-  </si>
-  <si>
     <t>Var81</t>
   </si>
   <si>
@@ -717,9 +519,6 @@
     <t>V 2347 cGy ≥ 80.0 %</t>
   </si>
   <si>
-    <t>61.9</t>
-  </si>
-  <si>
     <t>Var84</t>
   </si>
   <si>
@@ -729,133 +528,13 @@
     <t>Var85</t>
   </si>
   <si>
-    <t>PTV_L</t>
+    <t>PTV</t>
   </si>
   <si>
     <t>Var86</t>
   </si>
   <si>
     <t>Var87</t>
-  </si>
-  <si>
-    <t>113.64653</t>
-  </si>
-  <si>
-    <t>42.371365</t>
-  </si>
-  <si>
-    <t>100.40268</t>
-  </si>
-  <si>
-    <t>14.988814</t>
-  </si>
-  <si>
-    <t>110.42506</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>920</t>
-  </si>
-  <si>
-    <t>2520</t>
-  </si>
-  <si>
-    <t>D 0.04 cm3 &lt; 260 cGy</t>
-  </si>
-  <si>
-    <t>D 0.04 cm3 &lt; 300 cGy</t>
-  </si>
-  <si>
-    <t>D 0.04 cm3 &lt; 2300 cGy</t>
-  </si>
-  <si>
-    <t>D 0.04 cm3 &lt; 2600 cGy</t>
-  </si>
-  <si>
-    <t>0.05114094</t>
-  </si>
-  <si>
-    <t>0.40230872</t>
-  </si>
-  <si>
-    <t>0.33184787</t>
-  </si>
-  <si>
-    <t>0.18638031</t>
-  </si>
-  <si>
-    <t>0.1966085</t>
-  </si>
-  <si>
-    <t>0.38412528</t>
-  </si>
-  <si>
-    <t>0.0045458613</t>
-  </si>
-  <si>
-    <t>0.012501119</t>
-  </si>
-  <si>
-    <t>0.061369128</t>
-  </si>
-  <si>
-    <t>0.17160626</t>
-  </si>
-  <si>
-    <t>0.064778523</t>
-  </si>
-  <si>
-    <t>0.093190157</t>
-  </si>
-  <si>
-    <t>0.11932886</t>
-  </si>
-  <si>
-    <t>1.1364653</t>
-  </si>
-  <si>
-    <t>1.1216913</t>
-  </si>
-  <si>
-    <t>1.130783</t>
-  </si>
-  <si>
-    <t>1.1148725</t>
-  </si>
-  <si>
-    <t>0.70347204</t>
-  </si>
-  <si>
-    <t>40.230872</t>
-  </si>
-  <si>
-    <t>33.184787</t>
-  </si>
-  <si>
-    <t>113.6465</t>
-  </si>
-  <si>
-    <t>40.2309</t>
-  </si>
-  <si>
-    <t>33.1848</t>
-  </si>
-  <si>
-    <t>110.4251</t>
-  </si>
-  <si>
-    <t>azo emlo-PTV</t>
-  </si>
-  <si>
-    <t>PTV eval</t>
-  </si>
-  <si>
-    <t>PTV</t>
   </si>
 </sst>
 </file>
@@ -1005,262 +684,262 @@
         <v>5</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="T1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="AB1" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="AC1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD1" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="W1" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="X1" s="0" t="s">
+      <c r="AE1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG1" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AH1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN1" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="AD1" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AO1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="AF1" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AR1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT1" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="AH1" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI1" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ1" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AU1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY1" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="AL1" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AZ1" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB1" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="AN1" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO1" s="0" t="s">
+      <c r="BC1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD1" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BE1" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="BF1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG1" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="AQ1" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR1" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS1" s="0" t="s">
+      <c r="BH1" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI1" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ1" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="BK1" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="AT1" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU1" s="0" t="s">
+      <c r="BL1" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN1" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="AV1" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW1" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX1" s="0" t="s">
+      <c r="BO1" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP1" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="BQ1" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="BR1" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="BS1" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="BT1" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="BU1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="BV1" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="BW1" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="BX1" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="BA1" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB1" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="BC1" s="0" t="s">
+      <c r="BY1" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ1" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA1" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="CB1" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="BD1" s="0" t="s">
+      <c r="CC1" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD1" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="BE1" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="BF1" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="BG1" s="0" t="s">
+      <c r="CE1" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="CF1" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="CG1" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="CH1" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="CI1" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="CJ1" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="BI1" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="BJ1" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="BK1" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="BL1" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="BM1" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="BN1" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="BO1" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="BP1" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="BQ1" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="BR1" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="BS1" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="BT1" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="BU1" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="BV1" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="BW1" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="BX1" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="BY1" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="BZ1" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="CA1" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="CB1" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="CC1" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="CD1" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="CE1" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="CF1" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="CG1" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="CH1" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="CI1" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="CJ1" s="0" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2">
@@ -1546,253 +1225,253 @@
         <v>7</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AH3" s="0" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AI3" s="0" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AJ3" s="0" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AK3" s="0" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AL3" s="0" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AM3" s="0" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN3" s="0" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AO3" s="0" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="AP3" s="0" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="AQ3" s="0" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="AR3" s="0" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="AS3" s="0" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="AT3" s="0" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="AU3" s="0" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="AV3" s="0" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="AW3" s="0" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="AX3" s="0" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="AY3" s="0" t="s">
-        <v>278</v>
+        <v>109</v>
       </c>
       <c r="AZ3" s="0" t="s">
-        <v>278</v>
+        <v>109</v>
       </c>
       <c r="BA3" s="0" t="s">
-        <v>278</v>
+        <v>109</v>
       </c>
       <c r="BB3" s="0" t="s">
-        <v>278</v>
+        <v>109</v>
       </c>
       <c r="BC3" s="0" t="s">
-        <v>278</v>
+        <v>109</v>
       </c>
       <c r="BD3" s="0" t="s">
-        <v>278</v>
+        <v>109</v>
       </c>
       <c r="BE3" s="0" t="s">
-        <v>278</v>
+        <v>109</v>
       </c>
       <c r="BF3" s="0" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="BG3" s="0" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="BH3" s="0" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="BI3" s="0" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="BJ3" s="0" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="BK3" s="0" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="BL3" s="0" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="BM3" s="0" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="BN3" s="0" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="BO3" s="0" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="BP3" s="0" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="BQ3" s="0" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="BR3" s="0" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="BS3" s="0" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="BT3" s="0" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="BU3" s="0" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="BV3" s="0" t="s">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="BW3" s="0" t="s">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="BX3" s="0" t="s">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="BY3" s="0" t="s">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="BZ3" s="0" t="s">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="CA3" s="0" t="s">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="CB3" s="0" t="s">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="CC3" s="0" t="s">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="CD3" s="0" t="s">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="CE3" s="0" t="s">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="CF3" s="0" t="s">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="CG3" s="0" t="s">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="CH3" s="0" t="s">
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="CI3" s="0" t="s">
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="CJ3" s="0" t="s">
-        <v>280</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
@@ -1803,262 +1482,262 @@
         <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>250</v>
-      </c>
       <c r="I4" s="0" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="0" t="s">
+      <c r="O4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="R4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="R4" s="0" t="s">
+      <c r="S4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="V4" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="X4" s="0" t="s">
+      <c r="Y4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF4" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="Y4" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z4" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA4" s="0" t="s">
+      <c r="AH4" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK4" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="AB4" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC4" s="0" t="s">
+      <c r="AL4" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN4" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="AD4" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF4" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG4" s="0" t="s">
+      <c r="AO4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR4" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT4" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="AH4" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI4" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ4" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK4" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL4" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM4" s="0" t="s">
+      <c r="AU4" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV4" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW4" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX4" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AY4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ4" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA4" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB4" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="AN4" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP4" s="0" t="s">
+      <c r="BC4" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD4" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BE4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG4" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="AQ4" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR4" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS4" s="0" t="s">
+      <c r="BH4" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="BI4" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK4" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="AT4" s="0" t="s">
+      <c r="BL4" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="AU4" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="AV4" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="AW4" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="AX4" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY4" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AZ4" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="BA4" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="BB4" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="BC4" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="BD4" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="BE4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="BF4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="BG4" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="BH4" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="BI4" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="BJ4" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="BK4" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="BL4" s="0" t="s">
-        <v>186</v>
       </c>
       <c r="BM4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="BN4" s="0" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="BO4" s="0" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="BP4" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BQ4" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BR4" s="0" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="BS4" s="0" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="BT4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="BU4" s="0" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="BV4" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BW4" s="0" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="BX4" s="0" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="BY4" s="0" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="BZ4" s="0" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="CA4" s="0" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="CB4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="CC4" s="0" t="s">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="CD4" s="0" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="CE4" s="0" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="CF4" s="0" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="CG4" s="0" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="CH4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="CI4" s="0" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="CJ4" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
